--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/81_Zonguldak_2021.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/81_Zonguldak_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B9F5BB3-B606-47C4-A864-05F5890E1D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9AB3CCB-3A83-48E0-87E7-3C5D4F4B025F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="668" xr2:uid="{26A9C6C9-FBB1-4CB3-B15E-FBDA22C1CA44}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="668" xr2:uid="{7887BD52-81A8-433A-956A-2DFE730988BF}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="113" r:id="rId1"/>
@@ -999,14 +999,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{45F878A1-1154-495C-80C1-B159D4A10C50}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{772F5724-F4B0-41FA-9819-BF578174B67D}"/>
-    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{49734A95-2543-4CDD-95A6-765AA98A0116}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{EE56BDA7-1F1D-4516-AD02-266164616613}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{958DFD57-01AF-42B2-9FC1-BDD127DC427A}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{1F0D4D97-8D03-45E3-AF6A-D5F3CDC0A8BC}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{4F3F74B4-CAD4-467F-81AC-6575F5CDDA24}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{8B0A1130-832D-45FD-BA9A-E05928FC2FD2}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{1E061802-A66D-4575-88A1-7AC84A846AE7}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{F00D058C-0D49-4554-8D24-4DDF15C6EA6E}"/>
+    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{8617C9DF-7DEF-4357-85E0-86C903147B50}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{618F9857-3AC1-4714-A394-22E1BEA682A0}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{1F5CC2BD-0CDD-4A9E-B89D-179CE56DBB41}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{23C8323A-4B1A-4132-B067-9711E27A1F59}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{74BE2D30-3CA1-4C8D-8B3D-222AF494D248}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{20961232-7931-4937-93D2-B9DA8FEECB91}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1376,7 +1376,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A70EB3-6281-43BF-B01F-AF09D966812B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BD72FDA-976C-40ED-9AF4-AC68C8594464}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2647,18 +2647,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3BB963FB-B56F-4D65-BFA0-810A856FF551}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EE0DD3E7-68F6-4921-992D-FEEEE048230C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{25DBAC22-8962-4F16-AEA9-C9A3F442FED7}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{26645D33-837F-410A-BFDC-6ED21538BA97}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E39FFF4C-8563-4540-B564-592D6FD6E5C8}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{2A464000-5204-47C8-94FB-23DC9B941FAB}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{4F2821AE-B24C-41E6-ADF4-662BEA6039F5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4711893D-F71C-4660-8764-9C568F27B85D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{27E4B752-A03F-4CF5-9038-B9302E5C79AD}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{57E530D2-857D-41A1-9C3F-3A33DCAC8EA8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AEDB199D-D615-4743-990E-179229E3E210}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{469A0EDA-93E0-431E-A934-B8A5BCA67FA3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{503EF7DB-0855-4F9E-8912-34D54102D7BB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{08865D5F-141F-40A1-ACED-F69B1F5AAA81}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AE53876F-129C-461A-8083-5829E6132DC9}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5168C783-91AC-4C7E-A5E7-5178F7D75D03}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2797908E-1822-424B-BA69-24219C4D33A0}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F6C039DF-24B0-4D2C-8EBC-0AD88566C5F9}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{E67D0339-C225-4AD0-8C78-84AF9ABC8F82}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DF35CC20-1D51-4FE5-80FE-EFAB649AA5FE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8B4A0E7E-9EAE-46DC-B2EA-6184E99EE709}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{F829E6F3-714F-4CCE-BBE8-69A1F45D8104}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{75B2866C-B2F2-4219-8178-ACC94BC66720}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EFD95C8F-0463-4452-B1D8-09D966631D87}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2671,7 +2671,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADEB95AE-1DE4-4E38-955B-C7371D25BE74}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BE918BB-7AFD-40D5-87B3-835DDB8BA19B}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3916,18 +3916,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3D3B5FDB-E547-4671-AAA7-284667713412}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0F8D5C1B-3755-49BC-9D89-B35AB5421749}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{05A108D8-0E53-42BF-B95B-7BEC773833BE}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A53B3F12-3170-44D2-8838-F0A9E9DD1563}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{ECE60561-4935-4EDA-904D-29CB1E0DC858}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{650E5F6C-089F-4158-86F2-486E897C255A}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{A26A8ECC-A877-4853-BC97-3407336F1BF5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DAE2D408-8B58-40EA-B22D-1209C62E68EF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B7991892-0693-41FA-8DB2-63C45531E457}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{0CFF0BB6-7F45-4303-90F8-40DDE54B6AA9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{74C59F28-1D32-49BD-81F4-982E4083F5F1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EBE612E9-7C70-4708-8DCD-04D6A2989A59}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BB3285E1-6122-4DA3-B742-FCFFDAE82BAD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B6822ACB-A2DA-45F3-AD99-BAD0E005E0BE}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BF8E71F2-19DB-441B-917A-D38D21B5D26B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{96603372-FD74-4E88-B81C-A26849EA6D05}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7741D030-C390-4902-BAFA-179962C28461}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{7F9BE20F-1002-4253-B672-B7DF40A7B08C}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{D4CB9295-D3E6-49B9-B462-CF820F470830}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A5674AEC-AC5C-4D8F-93C9-6727FCDEF034}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{679ED97B-570F-4891-8DA3-7E03624B2E46}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{13F115F0-A592-40DE-A1D2-C15DB09BE2EE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C0B22C48-4CC4-4968-A79E-07C4517427DE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{919114B9-B4A0-431A-9447-9E9084764E45}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3940,7 +3940,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42104F09-824F-4C37-868E-EF90BA69C814}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E04A1288-FDC2-43E9-AC98-CFA030D4B29D}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5185,18 +5185,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{56EBB7C3-8DD6-4FC5-B8DD-692DCB139B47}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{24E0C523-6B49-469D-BC69-E79BB32BEBC2}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D853C469-F7A5-427B-ACE6-58DFB3CE7D21}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B947792F-19C3-45D7-A0F5-DD0D7C233BC3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B3802DCD-D6BE-49CD-9494-4B91D20322F4}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{8E1EED0F-87C8-4754-862E-3CC9313EC12F}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{64CADC47-4D4E-4712-BF62-0A10ED1063E8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4459B633-D206-4EC4-BD88-787CB2BA279C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{859DA9BB-6824-4048-AF02-A2BFFFBF8A73}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{733D833C-405B-42D0-BFB5-68DE16235D5D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6B8D89D1-4E27-4F19-934F-F7BFD303A083}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0FAAF991-3585-4008-BED6-130B023ED616}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B464953F-6BDA-4BA2-8929-6F65BC3619EE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E063D84A-5E64-4359-97A2-B19D535CCF01}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8C6ABFE4-A49E-4427-88AE-220CB7EC494C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E714167F-54A1-4A60-B93C-CA2DDE998B82}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{506B6450-4635-436C-8EAB-1AA9F3C29E80}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{DDBFB2E2-42E4-4250-9D5A-6387B70AC429}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{E9818DF7-F2FE-4812-89F7-656F9E5EB9D3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2A21FCBD-E60F-452F-8866-3A294D04D896}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3F9D78B2-DB7C-4436-94B0-0D813E5DB14B}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{CDBCCC1B-0D66-4D59-B6D5-653F9AEB56BA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C92DABA3-9413-438D-980C-1E972D281775}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D0693141-2F2A-4B08-8081-4549266D33A1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5209,7 +5209,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{487E7ECE-54BB-4CF8-BD1C-52144E0C8DA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6619455E-3601-4C1E-99A7-6CA0019E5040}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6436,18 +6436,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{179699C6-2A72-477F-83DE-84E4FDA7BD7C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{03C738F5-AADD-4C71-8831-6A2BFA4B03D5}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{26820798-875F-4799-AF36-4F3800A7F3A0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1FDA430C-CD1D-4602-BC18-57CD0D1ED455}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E84B8B74-2D98-416B-BE54-16C8401A81D6}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{EAEE96F6-D554-40FC-802F-1E7C65B82AAE}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{ECBCAF32-D6EE-462F-9B83-3FF180D1E52E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7AE3E9C8-8205-4294-B932-83582F8AF5B5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CC3E007A-2F96-47AB-9DB6-BB7DAAFCD75F}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{99DFE3BF-2F06-4E03-BB0B-66005BCA2DFA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E2EB08F1-0A79-4E85-96BC-A050277FCA4F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2C479B37-18E0-4559-A75F-C0ED168AD3F2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4DA01038-2950-4244-A79C-41BE283D27D8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{04781559-2702-4395-BB5A-0FE033C39F40}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9638D2AD-3395-4FFE-85D6-77FA599BE363}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{54F90E36-F0D3-4925-9965-0E77D42198D3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{36AC988B-7E08-40E0-BF21-454490A99922}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{8F2ECEB3-CC33-420F-AF0E-EC9B1F111505}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{5CEE6250-AE3F-4C3A-BD54-5A1D91EBBAD3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5BE8590B-4CED-4215-9B3F-3E153B58216C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9A48617C-AD14-4B61-8FFB-271FAA607431}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{AC51804F-ED1E-4097-978F-AEC9FFCAF85A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D0E7126F-FC20-4557-A642-35BA77676BAE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8828C8D3-FC5B-4C30-AEFF-BA4B2CBD585B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6460,7 +6460,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B35D4539-F8C4-4943-8E65-5543F607F0E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC95BFE-7462-463E-A9AE-5DFF414220F2}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7731,18 +7731,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9099ACAE-C1CD-4DE9-89CA-ABAC5238EC19}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F5A519D4-DE48-4A33-9F6C-8304F90ED7DE}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FF557D77-BB68-4EDF-8CE4-D2058475D5BE}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9D2B5F4E-FA83-4DDB-9409-8B98827ECAE6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{46F20B33-52D1-4F51-8B7B-FA4F11D6159B}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B2DC5FD4-0986-4588-8A53-CC00B218A08F}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{0F20F09E-853F-4F56-B220-514FAB160231}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8FD22A76-1BBE-43BA-91B8-65D5903BCC6B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F841FF3A-8792-401D-A6D9-675D8A3C1800}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{6A47C5C3-0607-4DB1-9066-0C82679D71C0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CFFF0B59-BB8B-4161-9966-4DC733B4047C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D1359F57-40F9-43F4-81EE-185CA187D7FA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C79E4B18-8B12-4863-AFF7-AF2C37A57066}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F7F18904-440D-4400-8974-8313D38675C1}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{25E404DC-89D5-4685-A16E-499AAC4A0706}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C676E76A-564C-40DB-88BD-05E71214DBEE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{44340130-9046-4B1D-8CB6-4188E6B15EA7}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{1B5D915E-41D2-4387-A166-715A693F83C1}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{650F8165-4E5F-4BED-AEF5-720BA41C0D65}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C3A66E32-75B2-4ED9-B52F-5E5A7BE51BCB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{125B31E7-A6F7-4206-883D-6F8D595BCB95}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{F1D1E13E-A6AA-4E32-AAB2-86E5AA79ED0E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D72CE0BD-4B7C-426B-ABE5-6E75B57649CB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D9F6F2E4-589D-4B26-95E2-262FADDDAACA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7755,7 +7755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0022512-7D45-496D-B790-3A22AF700AF8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B96476D3-ACD4-48FA-B979-34A1D1BC5DBC}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9026,18 +9026,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D94CE977-2103-49A6-9DF6-8C2BAE20A03E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9F886540-F637-4034-BAF5-94072BC0E80F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0E0B5207-9D68-45FF-A468-88663D48DF52}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0A5544BB-CBAB-4732-8DD7-29838D826082}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7CCDAB98-8C63-4F7D-ACE8-B9336B3746EC}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{DC150B1E-9EC2-4536-BF87-E9FC9A1DBA85}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{72AE29A9-B6F4-4C2D-A826-682D96C3944A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{83C7E8FB-586D-4533-A7C7-D1AC4B39FE76}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6F95EDE0-066D-4257-B7E2-C074DFAB86AA}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{89503837-E97F-441B-AF40-DC095FB3BFBC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F0E353B1-D035-4081-B21B-E262BB10AABB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1A4FF997-1199-466D-B9B6-ACA819C04739}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{073FDEC5-9397-467A-B136-FB9DFB6FC080}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5730A5D4-E911-4C9C-8E12-25282454266D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{47F63072-A8C5-4EA0-A312-97BB7625F306}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{100079C8-030C-4A99-9438-70E5FD95338C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7E14939E-1F08-45A3-926F-99A27484120E}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{020C98EB-B5F5-493B-963D-0257FC668F00}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{1DF188EA-8292-4071-A66F-A762322A343A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F6A03693-5340-45A2-9147-A8BDF249D2F2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1EAB7B35-66C6-4DC4-BEDF-8B0A243755CD}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{93442FED-AD31-4362-9019-ACD7B6A3009E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CDEF12F1-492E-4325-91A8-A7AD9A95853A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A2F956E7-F4F9-44FE-AB69-E0B70A88E411}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9050,7 +9050,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90E27B40-4AB0-4A01-BC7E-C85B1BF2FF76}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ACC0BD0-14B1-46C5-823A-35E0B2A95971}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10321,18 +10321,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B27CAE14-8F93-4E0A-BB9B-7EB8B38A91DA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{47AEA3A8-7FA3-47C8-9A1A-EC5FB94066E0}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CFB8D026-8101-4017-BA8C-A445273117A3}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B4A2AC55-E037-4306-A468-B6554A81C1D1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C79B6855-E556-4B21-85E3-038A85046F0C}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{3F827DC8-5B18-4504-BDFC-D71AD29F358A}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{1AD2B9F4-305B-47A5-B896-C6B3C2AAE013}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0D6C9DBD-DA05-4168-8F60-03607A754749}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E75D245A-5AC4-4020-9F41-7510B6ADCD1A}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{2507AFB0-589B-4B5A-A3A6-72171E248E0E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{72750A0F-B92D-4111-B593-6E876A25A170}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5AF94ACD-A11D-40E4-B520-40DB4001B2CA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{63BA925C-D774-4BAE-869A-87D79C6EC5CC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5E3B9F6E-1504-44AC-99F7-3640AE5F7FCC}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AB3D1431-776F-423A-AC6A-CD5B35486646}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BE1301DB-B419-4C8D-B63E-FD6CE9A0F9FC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{67334906-2891-470A-BDDC-7A3A85658CC5}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{AA4F0BF7-1D4B-442E-B056-9BBD0E4FE343}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{F8AF140E-5FCC-403D-A5C9-87223280BDDD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3E9929A3-A813-4FA2-A1A6-33512EF8F1A4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{854EFCD5-E185-4ECC-9AA0-B9250B4F0DB9}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{0DCD9520-83BA-40A5-8C87-4ABFA0AB93BF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AC521816-3313-4A95-A345-E8E10D4AB9F6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7100B85F-617C-4AF6-A564-57B90EF7C091}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10345,7 +10345,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C72895E-C434-40B7-AFF0-F3516AC63936}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D451CD-631F-40D7-B536-F9198ECE26FD}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11612,18 +11612,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9D3BCDF7-5A4F-42C2-99E4-23B9A0350716}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5750C736-B758-4618-B7ED-3CF0C1A8A75B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B3481284-ABCF-4400-9D50-8E03707813C5}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E81C56A2-BE44-4CD1-988A-F252E9E7FCEF}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A3EF3027-1A8A-4228-BB82-D68C0844D8ED}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{9F5F5B89-D9E2-4FBC-82C0-61D6B7B23C60}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{CA0483F3-1BAE-43CB-96A1-6C1FD35EA65C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D7088DA4-BAC8-4B90-9542-EA3EC6E01012}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DBE7C038-BE5C-4C17-A469-261B6AA0B75C}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{69547619-1318-4813-BA8E-AEF02BAC4BF7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C1E8AFF6-6B0B-4265-8941-F9D4D1543A9D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C5E69F2C-8392-4C12-94C7-58994D29746A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AADBD210-0618-4DB8-BB2B-03ADCF5235FB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{94C9EC33-AEEE-40A7-9963-3874A3FF502C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4348FCF4-8A4C-43BC-933C-48A3FB3EE0D1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C078568D-7978-4CC4-98F9-92D83FA51BA7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9BFB868A-CE2B-40A1-AF77-C51955B1E536}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{DE9F7F4D-8171-45FA-9EED-68E2CCD9113F}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{DD08884C-0D15-45D4-9381-CFB7067E67DB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2418FC8F-9779-4FDF-B8CB-72D951D89FA5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{83FDB255-53F3-4873-B6E3-77FC3C4C92BD}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{219297F6-B716-404D-A250-AEBF0EE06F0C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2B3D5821-2F52-4AE1-A5EB-75C70513AE7E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{872D5E1C-A820-4723-8AF3-F098B3831F7A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11636,7 +11636,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{014D6E56-06B5-4241-8FF9-7C019FC33A4B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9BA7E98-5AD0-4537-B26E-FB032145246B}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12895,18 +12895,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{158EADEE-DA33-45FA-BCB7-9786D6D77055}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F1D4A40F-5987-4B7E-AB88-E2DB89B06D72}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3BA786C2-B7BC-4C3C-9E15-A1A6AF26D2AF}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EEEF7E79-11C7-4BB8-8B2D-4B239C5CBA13}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7F664D6A-FF00-4B98-9120-9E682CF5BBEC}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{45E3E64E-FB73-4ECA-AC9A-3CB150DDCAAA}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{2C539D08-9B6E-4B28-86E0-396368ED2888}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FD5B3FA1-B083-4A48-8C8C-50AE5852BFF2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5E763E0E-5545-4436-BAD3-E7A9B7F76707}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{B30B35B6-A29C-4FF1-AB68-85793FBF3340}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{553FCB59-9200-4FCC-AD77-EB4071F1BDF0}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{277566D7-37E7-4585-829E-63C103E45D9C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0AC92C5D-775D-4050-A796-63997B2328BC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{142BF78B-9B92-4EA1-BDFA-9BCA3256A841}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E6D07BBE-9C50-4AC1-802A-B102C4B837C5}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{73081989-18A7-4AC8-9E85-83BA82AD3BB3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{43670097-78F5-4FE4-8EB2-753590F7D152}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{D00FCA15-BD36-41C5-9B03-65D68F1CB76F}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{7A6312E4-4288-41F8-B555-3A63751D1AC5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{246465A5-69F6-4B99-A983-470DA8CC9425}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B0401982-0F07-42E6-B621-F5B1411C401A}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{2AAA29DA-7345-42BD-A702-9DAC0A62F36F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6CB25CF6-2BCC-47D9-BA97-12A5DB97B472}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BD4E2AC7-70D9-424B-866E-206D9A4F99AA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12919,7 +12919,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5506BAB3-4892-44B5-8419-D9B99187AB95}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{596F78B4-D0F2-47DB-9B34-D61EB3C10622}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14166,18 +14166,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{83B226C1-1EBE-4302-ADD9-958F37577D94}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9C9778E9-0931-4E1F-834E-0E6787278219}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{843B29E4-088C-41EA-A231-F75AF4D48B08}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{78CD5639-738F-455B-98EF-029200A85885}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6440078C-A546-4CA7-9409-AFA5146CA715}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{2906FACC-3DCC-4508-B3E4-1BADE52B1A7B}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{0093C6C7-6409-40DF-A776-8617344B59F2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CD33031E-469A-49B6-9031-7DFCFFCA55A7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8B98D8A0-5DEF-4E1A-BE1D-F195B242EC6B}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{0A024841-D1CA-4308-891A-F44978C33A04}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5356A436-3418-4264-B7CE-9E7C2B99F2ED}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{98D28BA4-F303-4536-B6FB-78ED9A2E8D10}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CA2DD90E-B9A2-4A44-9E7D-51DE90CF42C3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E04D0C95-415E-49C8-AAD3-A3861C7F17CF}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DF854878-E0B6-48D4-8125-3EE867ED14BA}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8A46C6C9-39D2-4414-A801-91BCCBA66AC6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{108CF781-2BA8-493A-A2C8-C399BFCFD5E7}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{423C3842-46F0-4EBE-B987-4983D7FD051A}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{00D117CE-F7F8-454B-9E23-EDDAC2184096}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D9F2A615-C13D-4231-A254-83C68C356F4B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C6557F3A-B7D2-4AB9-97B5-EE54C844DF14}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{6A6DF987-4EEC-4D2E-878E-99A018EEEFA2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FA8C0D22-B31D-41BF-A1AD-DE14704BA8E5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8FBC354C-0F3C-4B82-B023-62889683B028}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14190,7 +14190,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4C786B5-777B-4891-89B5-AA1CDCE38D4B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5764EA10-747D-4384-AB19-52AF1E560F80}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15437,18 +15437,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1683E88D-8A29-4A8D-AC53-0D9AEC04848F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{59AE35BD-3965-4244-96FA-D57863CEA598}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{594EA70D-0B54-49AC-96FC-96A855498138}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FED3558C-05A2-4B32-B01A-AA747D5484EE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4D3A5BD1-78FB-4F0D-9D8F-18C268F24081}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{83801B8A-AD00-4C17-9D32-9BE5E6F8AEC8}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{0DC7FAA1-A4BD-4E8B-89F6-EB05D272CAA0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{462A5A57-5430-4018-AB8F-166736CE8B4A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{59D795D5-2443-4576-8E64-1D8EA42A6587}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{647D367B-CB2C-45C8-9A2F-853512B56675}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{68C6DB78-A21E-4109-92E3-80E689C9E455}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{352B2C75-F76F-4C82-80E1-1E712501EC50}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2AF9E7CB-284C-4A71-9D47-CEA02180EB1C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B5729A67-436C-4944-BE30-159F6D5930CC}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3CCAE380-9CBA-4B54-B362-2548B7692714}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A6100422-F841-45F1-9F31-567CE845B345}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FB1B6213-CE8B-4532-ACE7-27C1B0A9E4AC}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{BE37AD18-DC03-4B21-9518-23A50602C8D1}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{248471CF-A2C8-442D-9604-722E843D00BF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F15A854C-2182-461D-A131-522668E8FC5C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1B380A5C-6EB2-492C-86E9-1A86B14E1A4B}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{F8E0D623-B13C-4E05-B07E-687912620131}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DAFA7991-352C-4F0A-BA7A-4833716CA006}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9670CC3A-AB90-4E05-9759-07743E1ECCF6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15461,7 +15461,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C5FC181-B4AB-42AA-9ECB-D9E4465BAB35}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{792AF8CB-6C01-4C5A-BE8B-D2572805CFAF}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16708,18 +16708,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DE60EE2A-5A86-4FF2-B108-090FD4948031}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{877C5812-F203-41AE-A5F3-3670D8865EC0}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2D1537BE-3CE5-4899-9FE0-037514B4A06F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{689E5712-9A32-4E6E-9108-3E49D8C52D26}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{74D7814A-2249-4286-8CE7-740C3D7F7C43}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{28A9500D-C05F-46B5-93CF-D13D0D66841F}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{30C26FB7-E8E5-4864-BAE5-CC36DB769D36}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EF729A05-3213-4B2C-8A89-93A552EAE442}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BAD68656-5BBC-42F0-9D67-BE5ABB299BAA}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{091A47A7-2FB1-4129-9AAF-258BD2F87370}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B502FCCA-23ED-4149-9196-356E34C248AE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{212E6B3B-BFDF-45DF-A7C5-3D3995427EB7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C5C498D8-041D-46E5-822C-240A47BEAA6B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A6E35AED-133F-4FF1-818A-07AE50C4CF89}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E15E7D7C-27D4-4C38-B22B-070CC631F0AA}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7C7CADFB-FADC-4EE7-B8D8-430D45738625}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{001A66DA-6931-41DA-89EF-889167BB14A8}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{BD022DD8-9793-4948-912C-801D033FC5C9}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{8627095F-428F-4535-AFBC-C894DA2C97AD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3D13C2D5-1214-4871-891B-682BFF3F4631}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A3743A38-10FC-4E14-A3E9-93E7319DC8FE}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{0C8E8E88-0412-4E98-AD36-2BB63E8011F6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BA1B434A-8758-4D41-93ED-777FB1023F5A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C3980237-77C4-4A0F-A054-7313E6C1C102}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
